--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.2654234684855</v>
+        <v>27.10983833333333</v>
       </c>
       <c r="H2">
-        <v>10.2654234684855</v>
+        <v>81.329515</v>
       </c>
       <c r="I2">
-        <v>0.832065818066552</v>
+        <v>0.9284397459331688</v>
       </c>
       <c r="J2">
-        <v>0.832065818066552</v>
+        <v>0.9284397459331687</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>81.32054952176139</v>
+        <v>124.722578</v>
       </c>
       <c r="N2">
-        <v>81.32054952176139</v>
+        <v>374.167734</v>
       </c>
       <c r="O2">
-        <v>0.9677838600975293</v>
+        <v>0.9767311432246923</v>
       </c>
       <c r="P2">
-        <v>0.9677838600975293</v>
+        <v>0.9767311432246923</v>
       </c>
       <c r="Q2">
-        <v>834.7898775308266</v>
+        <v>3381.208926096556</v>
       </c>
       <c r="R2">
-        <v>834.7898775308266</v>
+        <v>30430.88033486901</v>
       </c>
       <c r="S2">
-        <v>0.8052598692636562</v>
+        <v>0.9068360144605468</v>
       </c>
       <c r="T2">
-        <v>0.8052598692636562</v>
+        <v>0.9068360144605467</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.2654234684855</v>
+        <v>27.10983833333333</v>
       </c>
       <c r="H3">
-        <v>10.2654234684855</v>
+        <v>81.329515</v>
       </c>
       <c r="I3">
-        <v>0.832065818066552</v>
+        <v>0.9284397459331688</v>
       </c>
       <c r="J3">
-        <v>0.832065818066552</v>
+        <v>0.9284397459331687</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.70704473215213</v>
+        <v>0.134712</v>
       </c>
       <c r="N3">
-        <v>2.70704473215213</v>
+        <v>0.404136</v>
       </c>
       <c r="O3">
-        <v>0.0322161399024708</v>
+        <v>0.001054960600366076</v>
       </c>
       <c r="P3">
-        <v>0.0322161399024708</v>
+        <v>0.001054960600366076</v>
       </c>
       <c r="Q3">
-        <v>27.78896052367451</v>
+        <v>3.65202054156</v>
       </c>
       <c r="R3">
-        <v>27.78896052367451</v>
+        <v>32.86818487404</v>
       </c>
       <c r="S3">
-        <v>0.02680594880289586</v>
+        <v>0.0009794673517733829</v>
       </c>
       <c r="T3">
-        <v>0.02680594880289586</v>
+        <v>0.0009794673517733827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.17341240309285</v>
+        <v>27.10983833333333</v>
       </c>
       <c r="H4">
-        <v>1.17341240309285</v>
+        <v>81.329515</v>
       </c>
       <c r="I4">
-        <v>0.0951111616687097</v>
+        <v>0.9284397459331688</v>
       </c>
       <c r="J4">
-        <v>0.0951111616687097</v>
+        <v>0.9284397459331687</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>81.32054952176139</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N4">
-        <v>81.32054952176139</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O4">
-        <v>0.9677838600975293</v>
+        <v>0.02221389617494163</v>
       </c>
       <c r="P4">
-        <v>0.9677838600975293</v>
+        <v>0.02221389617494163</v>
       </c>
       <c r="Q4">
-        <v>95.42254143516116</v>
+        <v>76.89918003650277</v>
       </c>
       <c r="R4">
-        <v>95.42254143516116</v>
+        <v>692.092620328525</v>
       </c>
       <c r="S4">
-        <v>0.09204704717810404</v>
+        <v>0.02062426412084859</v>
       </c>
       <c r="T4">
-        <v>0.09204704717810404</v>
+        <v>0.02062426412084859</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.17341240309285</v>
+        <v>1.190813333333333</v>
       </c>
       <c r="H5">
-        <v>1.17341240309285</v>
+        <v>3.57244</v>
       </c>
       <c r="I5">
-        <v>0.0951111616687097</v>
+        <v>0.04078218449921273</v>
       </c>
       <c r="J5">
-        <v>0.0951111616687097</v>
+        <v>0.04078218449921273</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.70704473215213</v>
+        <v>124.722578</v>
       </c>
       <c r="N5">
-        <v>2.70704473215213</v>
+        <v>374.167734</v>
       </c>
       <c r="O5">
-        <v>0.0322161399024708</v>
+        <v>0.9767311432246923</v>
       </c>
       <c r="P5">
-        <v>0.0322161399024708</v>
+        <v>0.9767311432246923</v>
       </c>
       <c r="Q5">
-        <v>3.176479864434472</v>
+        <v>148.5213088501067</v>
       </c>
       <c r="R5">
-        <v>3.176479864434472</v>
+        <v>1336.69177965096</v>
       </c>
       <c r="S5">
-        <v>0.00306411449060567</v>
+        <v>0.03983322968911638</v>
       </c>
       <c r="T5">
-        <v>0.00306411449060567</v>
+        <v>0.03983322968911638</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.89843750943732</v>
+        <v>1.190813333333333</v>
       </c>
       <c r="H6">
-        <v>0.89843750943732</v>
+        <v>3.57244</v>
       </c>
       <c r="I6">
-        <v>0.07282302026473826</v>
+        <v>0.04078218449921273</v>
       </c>
       <c r="J6">
-        <v>0.07282302026473826</v>
+        <v>0.04078218449921273</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>81.32054952176139</v>
+        <v>0.134712</v>
       </c>
       <c r="N6">
-        <v>81.32054952176139</v>
+        <v>0.404136</v>
       </c>
       <c r="O6">
-        <v>0.9677838600975293</v>
+        <v>0.001054960600366076</v>
       </c>
       <c r="P6">
-        <v>0.9677838600975293</v>
+        <v>0.001054960600366076</v>
       </c>
       <c r="Q6">
-        <v>73.06143197840555</v>
+        <v>0.16041684576</v>
       </c>
       <c r="R6">
-        <v>73.06143197840555</v>
+        <v>1.44375161184</v>
       </c>
       <c r="S6">
-        <v>0.07047694365576899</v>
+        <v>4.302359784352954E-05</v>
       </c>
       <c r="T6">
-        <v>0.07047694365576899</v>
+        <v>4.302359784352954E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.89843750943732</v>
+        <v>1.190813333333333</v>
       </c>
       <c r="H7">
-        <v>0.89843750943732</v>
+        <v>3.57244</v>
       </c>
       <c r="I7">
-        <v>0.07282302026473826</v>
+        <v>0.04078218449921273</v>
       </c>
       <c r="J7">
-        <v>0.07282302026473826</v>
+        <v>0.04078218449921273</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.70704473215213</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N7">
-        <v>2.70704473215213</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O7">
-        <v>0.0322161399024708</v>
+        <v>0.02221389617494163</v>
       </c>
       <c r="P7">
-        <v>0.0322161399024708</v>
+        <v>0.02221389617494163</v>
       </c>
       <c r="Q7">
-        <v>2.432110527090177</v>
+        <v>3.377835300377777</v>
       </c>
       <c r="R7">
-        <v>2.432110527090177</v>
+        <v>30.40051770339999</v>
       </c>
       <c r="S7">
-        <v>0.002346076608969274</v>
+        <v>0.0009059312122528255</v>
       </c>
       <c r="T7">
-        <v>0.002346076608969274</v>
+        <v>0.0009059312122528255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.8986996666666666</v>
+      </c>
+      <c r="H8">
+        <v>2.696099</v>
+      </c>
+      <c r="I8">
+        <v>0.03077806956761847</v>
+      </c>
+      <c r="J8">
+        <v>0.03077806956761847</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>124.722578</v>
+      </c>
+      <c r="N8">
+        <v>374.167734</v>
+      </c>
+      <c r="O8">
+        <v>0.9767311432246923</v>
+      </c>
+      <c r="P8">
+        <v>0.9767311432246923</v>
+      </c>
+      <c r="Q8">
+        <v>112.0881392744073</v>
+      </c>
+      <c r="R8">
+        <v>1008.793253469666</v>
+      </c>
+      <c r="S8">
+        <v>0.0300618990750291</v>
+      </c>
+      <c r="T8">
+        <v>0.0300618990750291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.8986996666666666</v>
+      </c>
+      <c r="H9">
+        <v>2.696099</v>
+      </c>
+      <c r="I9">
+        <v>0.03077806956761847</v>
+      </c>
+      <c r="J9">
+        <v>0.03077806956761847</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.134712</v>
+      </c>
+      <c r="N9">
+        <v>0.404136</v>
+      </c>
+      <c r="O9">
+        <v>0.001054960600366076</v>
+      </c>
+      <c r="P9">
+        <v>0.001054960600366076</v>
+      </c>
+      <c r="Q9">
+        <v>0.121065629496</v>
+      </c>
+      <c r="R9">
+        <v>1.089590665464</v>
+      </c>
+      <c r="S9">
+        <v>3.246965074916364E-05</v>
+      </c>
+      <c r="T9">
+        <v>3.246965074916364E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8986996666666666</v>
+      </c>
+      <c r="H10">
+        <v>2.696099</v>
+      </c>
+      <c r="I10">
+        <v>0.03077806956761847</v>
+      </c>
+      <c r="J10">
+        <v>0.03077806956761847</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.836578333333333</v>
+      </c>
+      <c r="N10">
+        <v>8.509734999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.02221389617494163</v>
+      </c>
+      <c r="P10">
+        <v>0.02221389617494163</v>
+      </c>
+      <c r="Q10">
+        <v>2.549232002640555</v>
+      </c>
+      <c r="R10">
+        <v>22.943088023765</v>
+      </c>
+      <c r="S10">
+        <v>0.0006837008418402073</v>
+      </c>
+      <c r="T10">
+        <v>0.0006837008418402073</v>
       </c>
     </row>
   </sheetData>
